--- a/Notenlisten.xlsx
+++ b/Notenlisten.xlsx
@@ -6,34 +6,43 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1 (10) (10) (10)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tabelle1 (10) (10) (9)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Tabelle1 (10) (10) (8)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Tabelle1 (10) (10) (7)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Tabelle1 (10) (10) (6)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Tabelle1 (10) (10) (5)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Tabelle1 (10) (10) (4)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Tabelle1 (10) (10) (3)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Tabelle1 (10) (10) (2)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Tabelle1 (10) (10)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Tabelle1 (10) (9)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Tabelle1 (10) (8)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Tabelle1 (10) (7)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Tabelle1 (10) (6)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Tabelle1 (10) (5)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Tabelle1 (10) (4)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Tabelle1 (10) (3)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Tabelle1 (10) (2)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Tabelle1 (10)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Tabelle1 (9)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Tabelle1 (8)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Tabelle1 (7)" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Tabelle1 (6)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Tabelle1 (5)" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Tabelle1 (4)" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Tabelle1 (3)" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Tabelle1 (2)" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Tabelle1" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Tabelle1 (10) (10) (10) (10)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabelle1 (10) (10) (10) (9)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1 (10) (10) (10) (8)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1 (10) (10) (10) (7)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Tabelle1 (10) (10) (10) (6)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Tabelle1 (10) (10) (10) (5)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Tabelle1 (10) (10) (10) (4)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Tabelle1 (10) (10) (10) (3)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Tabelle1 (10) (10) (10) (2)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Tabelle1 (10) (10) (10)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Tabelle1 (10) (10) (9)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Tabelle1 (10) (10) (8)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Tabelle1 (10) (10) (7)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Tabelle1 (10) (10) (6)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Tabelle1 (10) (10) (5)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Tabelle1 (10) (10) (4)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Tabelle1 (10) (10) (3)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Tabelle1 (10) (10) (2)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Tabelle1 (10) (10)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Tabelle1 (10) (9)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Tabelle1 (10) (8)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Tabelle1 (10) (7)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Tabelle1 (10) (6)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Tabelle1 (10) (5)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Tabelle1 (10) (4)" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Tabelle1 (10) (3)" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Tabelle1 (10) (2)" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Tabelle1 (10)" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Tabelle1 (9)" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Tabelle1 (8)" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Tabelle1 (7)" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Tabelle1 (6)" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Tabelle1 (5)" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Tabelle1 (4)" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Tabelle1 (3)" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Tabelle1 (2)" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Tabelle1" sheetId="37" state="visible" r:id="rId37"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -21133,7 +21142,960 @@
     <mergeCell ref="A8:V8"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236249" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.5" footer="0.5"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
@@ -22087,6 +23049,7630 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3"/>
+    <col customWidth="1" min="2" max="2" width="16.5703125"/>
+    <col customWidth="1" min="3" max="10" width="3.7109375"/>
+    <col customWidth="1" min="11" max="11" width="4.28515625"/>
+    <col customWidth="1" min="12" max="12" width="1.5703125"/>
+    <col customWidth="1" min="13" max="20" width="3.7109375"/>
+    <col customWidth="1" min="21" max="21" width="4.28515625"/>
+    <col customWidth="1" min="22" max="22" width="4.7109375"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row ht="6.75" customHeight="1" r="2"/>
+    <row ht="16.5" r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row ht="40.5" r="4">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row ht="45" customHeight="1" r="6">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row ht="69.75" customHeight="1" r="7">
+      <c r="A7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row ht="8.25" customHeight="1" r="8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row ht="21" customHeight="1" r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row ht="21" customHeight="1" r="10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="14">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="15">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="16">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="18">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="19">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="20">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="21">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="22">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="23">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="24">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="26">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="27">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="28">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="29">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="30">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="31">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="32">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="33">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="34">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="36">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="38">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="47"/>
+    </row>
+    <row ht="21" customHeight="1" r="39">
+      <c r="A39" s="54"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:V8"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236249" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
